--- a/Beta_Lab1.xlsx
+++ b/Beta_Lab1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\icpmoles\my\polimi\università\Magistrale 2 anno 2 semestre\lab\ASB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0AA43-513F-413B-B0E7-DC0CC89747A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6263D3-6D1E-41ED-B5F7-0FB4154BD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43F1006B-F939-4D0D-9BB9-6964545BCA3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43F1006B-F939-4D0D-9BB9-6964545BCA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Motor0" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>omega L</t>
   </si>
@@ -69,6 +71,21 @@
   </si>
   <si>
     <t>omega M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B = v/omm</t>
+  </si>
+  <si>
+    <t>beta2</t>
+  </si>
+  <si>
+    <t>sped c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nb : unrealiable</t>
   </si>
 </sst>
 </file>
@@ -122,6 +139,6613 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>beta/voltage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor1!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8947244128420583E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7156317967746548E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5826065670856112E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2835752649717142E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2904855144855146E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16FB-4BFD-9E54-B59E117E188E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357295871"/>
+        <c:axId val="357285791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357295871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357285791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357285791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357295871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>beta / omega</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor1!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8947244128420583E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7156317967746548E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5826065670856112E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2835752649717142E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2904855144855146E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60AC-4BAC-A586-3346F7CAB869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590859951"/>
+        <c:axId val="590851791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590859951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590851791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590851791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590859951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>torque / omega</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor1!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2422498461538445E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0834510769230776E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0381341538461584E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4029390769230756E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.94939076923077E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3671-4FD6-AFF4-A9C58A7356C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590851311"/>
+        <c:axId val="590859951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590851311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590859951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590859951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590851311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>omega L/Volt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Motor1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>omega L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D97E-4762-920C-65AE4210E3FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599801535"/>
+        <c:axId val="599802015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599801535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599802015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599802015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599801535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Motor1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sped c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor1!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34F0-4636-B270-B233B94A8D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357297791"/>
+        <c:axId val="357295871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357297791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357295871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357295871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357297791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>beta/omega L</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Motor0!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor0!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor0!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.2824935064935039E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8053587010004866E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2824935064935039E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5720927960927943E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1920425561699415E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8947244128420583E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7156317967746548E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6331428571428557E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9406572051430323E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7348243082218991E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7348243082218991E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6331428571428557E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF35-46CD-9061-54F64A5855F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599806815"/>
+        <c:axId val="599795775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599806815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599795775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599795775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599806815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>torque/omega</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Motor0!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>torque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor0!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor0!$J$2:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.2885119999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1297132307692289E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2885119999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0503138461538455E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6070547692307661E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2422498461538445E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0834510769230776E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6079999999999971E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0843963076923032E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3557316923076933E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3557316923076933E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EBC-4B57-8161-5C2102ECA27B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="599804895"/>
+        <c:axId val="599798655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="599804895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599798655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="599798655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599804895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>364671</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>181791</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>55517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F865593-0BCD-DECF-9965-39DC4049A093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>459377</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25581</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25D6699-52C6-1362-DF6A-06CC62EBCEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43742D5A-6726-3756-D362-39EBD600B87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>566056</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC51D844-B6F0-FB36-1D8A-9F4860E96C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05ECE6FC-71A2-E4F8-61AA-D1AB417B057E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBAE6D6-664C-B638-9055-6A5274D8FBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DFA0C2-54C2-BAB5-916C-BDCBB717A5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,18 +7065,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD99E0-FA82-4EB0-A56A-4D68DF3AEBC2}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -486,8 +7111,11 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38</v>
       </c>
@@ -526,8 +7154,12 @@
         <f>J2/G2</f>
         <v>4.8947244128420583E-6</v>
       </c>
+      <c r="M2">
+        <f>C2/B2</f>
+        <v>1.53</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>39</v>
       </c>
@@ -566,8 +7198,12 @@
         <f t="shared" ref="K3:K6" si="4">J3/G3</f>
         <v>4.7156317967746548E-6</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="5">C3/B3</f>
+        <v>1.54</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -606,8 +7242,12 @@
         <f t="shared" si="4"/>
         <v>2.5826065670856112E-6</v>
       </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>1.67</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>41</v>
       </c>
@@ -646,8 +7286,12 @@
         <f t="shared" si="4"/>
         <v>2.2835752649717142E-6</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>1.69</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>42</v>
       </c>
@@ -686,8 +7330,12 @@
         <f t="shared" si="4"/>
         <v>1.2904855144855146E-6</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1.7600000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>43</v>
       </c>
@@ -709,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44</v>
       </c>
@@ -731,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45</v>
       </c>
@@ -753,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>46</v>
       </c>
@@ -773,9 +7421,913 @@
       <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6B5A3E-BD11-4EC9-B17D-5AA90B67B77D}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.53</v>
+      </c>
+      <c r="D2">
+        <v>2.6</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G2">
+        <f>C2*70</f>
+        <v>107.10000000000001</v>
+      </c>
+      <c r="H2">
+        <f>F2/D2</f>
+        <v>2.9538461538461537E-3</v>
+      </c>
+      <c r="I2">
+        <f>B2/G2</f>
+        <v>9.3370681605975722E-3</v>
+      </c>
+      <c r="J2">
+        <f>H2*(I2-F2)</f>
+        <v>4.8947244128420583E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.54</v>
+      </c>
+      <c r="D3">
+        <v>2.6</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">C3*70</f>
+        <v>107.8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="1">F3/D3</f>
+        <v>2.9538461538461537E-3</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="2">B3/G3</f>
+        <v>9.2764378478664197E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="3">H3*(I3-F3)</f>
+        <v>4.7156317967746539E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3.34</v>
+      </c>
+      <c r="D4">
+        <v>2.6</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>233.79999999999998</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>8.5543199315654406E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>2.5826065670856082E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3.38</v>
+      </c>
+      <c r="D5">
+        <v>2.6</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>236.6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>8.4530853761623E-3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2.2835752649717163E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D6">
+        <v>2.6</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>8.1168831168831161E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1.2904855144855116E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>2.6</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>2.6</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>2.6</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>2.6</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G10">
+        <f>C10*70</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.9538461538461537E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D54F02-49E3-479B-A626-F3EB5AFC113B}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.66</v>
+      </c>
+      <c r="D2">
+        <v>2.6</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G2">
+        <f>C2*E2</f>
+        <v>46.2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2*G2</f>
+        <v>0.35481600000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(B2-H2)/D2</f>
+        <v>5.5839999999999987E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2*F2</f>
+        <v>4.2885119999999991E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <f>J2/G2</f>
+        <v>9.2824935064935039E-6</v>
+      </c>
+      <c r="M2">
+        <f>C2/B2</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.67</v>
+      </c>
+      <c r="D3">
+        <v>2.6</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">C3*E3</f>
+        <v>46.900000000000006</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H12" si="1">F3*G3</f>
+        <v>0.36019200000000007</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I12" si="2">(B3-H3)/D3</f>
+        <v>5.3772307692307668E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J12" si="3">I3*F3</f>
+        <v>4.1297132307692289E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="4">J3/G3</f>
+        <v>8.8053587010004866E-6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M13" si="5">C3/B3</f>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.66</v>
+      </c>
+      <c r="D4">
+        <v>2.6</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>46.2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35481600000000002</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5839999999999987E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2885119999999991E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="4"/>
+        <v>9.2824935064935039E-6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D5">
+        <v>2.6</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>47.25</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36288000000000004</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2738461538461526E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0503138461538455E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5720927960927943E-6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.57</v>
+      </c>
+      <c r="D6">
+        <v>2.6</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>109.9</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84403200000000012</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9987692307692263E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6070547692307661E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1920425561699415E-6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.53</v>
+      </c>
+      <c r="D7">
+        <v>2.6</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>107.10000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82252800000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8258461538461518E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2422498461538445E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8947244128420583E-6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.54</v>
+      </c>
+      <c r="D8">
+        <v>2.6</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>107.8</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82790399999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6190769230769234E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0834510769230776E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7156317967746548E-6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>2.6</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999963E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6079999999999971E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6331428571428557E-6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D10">
+        <v>2.6</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>172.9</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3278720000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6203076923076865E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0843963076923032E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9406572051430323E-6</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>1.6466666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3.32</v>
+      </c>
+      <c r="D11">
+        <v>2.6</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>232.39999999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.784832</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2756923076923089E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3557316923076933E-4</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7348243082218991E-6</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>57</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3.32</v>
+      </c>
+      <c r="D12">
+        <v>2.6</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>232.39999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.784832</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2756923076923089E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3557316923076933E-4</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7348243082218991E-6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2.6</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.6800000000000002E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="6">C13*E13</f>
+        <v>350</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="7">F13*G13</f>
+        <v>2.6880000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="8">(B13-H13)/D13</f>
+        <v>0.11999999999999993</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13" si="9">I13*F13</f>
+        <v>9.2159999999999942E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13" si="10">J13/G13</f>
+        <v>2.6331428571428557E-6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Beta_Lab1.xlsx
+++ b/Beta_Lab1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\icpmoles\my\polimi\università\Magistrale 2 anno 2 semestre\lab\ASB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6263D3-6D1E-41ED-B5F7-0FB4154BD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3957C1-8262-46D4-80D9-ECB5774ACE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43F1006B-F939-4D0D-9BB9-6964545BCA3B}"/>
   </bookViews>
@@ -850,7 +850,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>torque / omega</a:t>
+              <a:t>motor 1 torque / omega</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -894,10 +894,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2247,7 +2245,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>torque/omega</a:t>
+              <a:t>motor0 torque/omega</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2325,10 +2323,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Motor0!$C$2:$C$12</c:f>
+              <c:f>Motor0!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.66</c:v>
                 </c:pt>
@@ -2361,16 +2359,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Motor0!$J$2:$J$12</c:f>
+              <c:f>Motor0!$J$2:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4.2885119999999991E-4</c:v>
                 </c:pt>
@@ -2403,6 +2404,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.3557316923076933E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2159999999999942E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6490,16 +6494,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>364671</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139337</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>181791</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>55517</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>94706</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142603</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6526,16 +6530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25581</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>459377</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25581</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6563,15 +6567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>33744</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6598,16 +6602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>566056</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>337456</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>32658</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6634,16 +6638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>500742</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6711,16 +6715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7068,7 +7072,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:M10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7434,7 +7438,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7752,7 +7756,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Beta_Lab1.xlsx
+++ b/Beta_Lab1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\icpmoles\my\polimi\università\Magistrale 2 anno 2 semestre\lab\ASB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3957C1-8262-46D4-80D9-ECB5774ACE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC208F-B96B-4C0F-99CE-130DE735E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{43F1006B-F939-4D0D-9BB9-6964545BCA3B}"/>
   </bookViews>
@@ -274,19 +274,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.8947244128420583E-6</c:v>
+                  <c:v>2.1277367022624427E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7156317967746548E-6</c:v>
+                  <c:v>2.0498851420579423E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5826065670856112E-6</c:v>
+                  <c:v>1.1226590747121152E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2835752649717142E-6</c:v>
+                  <c:v>9.9267016768320412E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2904855144855146E-6</c:v>
+                  <c:v>5.6097405314685313E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,7 +513,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>beta / omega</a:t>
+              <a:t>beta / omega L</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -556,11 +556,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Motor1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -611,19 +620,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.8947244128420583E-6</c:v>
+                  <c:v>2.1277367022624427E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7156317967746548E-6</c:v>
+                  <c:v>2.0498851420579423E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5826065670856112E-6</c:v>
+                  <c:v>1.1226590747121152E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2835752649717142E-6</c:v>
+                  <c:v>9.9267016768320412E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2904855144855146E-6</c:v>
+                  <c:v>5.6097405314685313E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +859,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>motor 1 torque / omega</a:t>
+              <a:t>motor 1 torque / omega L</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -946,19 +955,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.2422498461538445E-4</c:v>
+                  <c:v>3.2554371544615373E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0834510769230776E-4</c:v>
+                  <c:v>3.1568231187692312E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0381341538461584E-4</c:v>
+                  <c:v>3.7496813095384645E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4029390769230756E-4</c:v>
+                  <c:v>3.3552251667692297E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.94939076923077E-4</c:v>
+                  <c:v>4.936571667692308E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,40 +1994,40 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.2824935064935039E-6</c:v>
+                  <c:v>5.7644284675324655E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8053587010004866E-6</c:v>
+                  <c:v>5.468127753321302E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2824935064935039E-6</c:v>
+                  <c:v>5.7644284675324655E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5720927960927943E-6</c:v>
+                  <c:v>5.3232696263736255E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1920425561699415E-6</c:v>
+                  <c:v>2.6032584273815339E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8947244128420583E-6</c:v>
+                  <c:v>3.0396238603749178E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7156317967746548E-6</c:v>
+                  <c:v>2.9284073457970606E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6331428571428557E-6</c:v>
+                  <c:v>1.6351817142857133E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9406572051430323E-6</c:v>
+                  <c:v>1.8261481243938232E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7348243082218991E-6</c:v>
+                  <c:v>1.6983258954057996E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7348243082218991E-6</c:v>
+                  <c:v>1.6983258954057996E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6331428571428557E-6</c:v>
+                  <c:v>1.6351817142857133E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,7 +2254,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>motor0 torque/omega</a:t>
+              <a:t>motor0 torque/omega L</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2373,40 +2382,40 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4.2885119999999991E-4</c:v>
+                  <c:v>2.6631659519999991E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1297132307692289E-4</c:v>
+                  <c:v>2.5645519163076908E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2885119999999991E-4</c:v>
+                  <c:v>2.6631659519999991E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0503138461538455E-4</c:v>
+                  <c:v>2.5152448984615381E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6070547692307661E-4</c:v>
+                  <c:v>2.8609810116923058E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2422498461538445E-4</c:v>
+                  <c:v>3.2554371544615373E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0834510769230776E-4</c:v>
+                  <c:v>3.1568231187692312E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6079999999999971E-4</c:v>
+                  <c:v>2.8615679999999981E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0843963076923032E-4</c:v>
+                  <c:v>3.1574101070769203E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3557316923076933E-4</c:v>
+                  <c:v>3.9469093809230778E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3557316923076933E-4</c:v>
+                  <c:v>3.9469093809230778E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.2159999999999942E-4</c:v>
+                  <c:v>5.7231359999999963E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6531,15 +6540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90896</xdr:rowOff>
+      <xdr:colOff>568235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>185057</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6567,13 +6576,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>33744</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:colOff>33745</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
@@ -6602,16 +6611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6638,16 +6647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>141513</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>468084</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:rowOff>76202</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7072,7 +7081,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7151,12 +7160,12 @@
         <v>6.8258461538461518E-2</v>
       </c>
       <c r="J2" s="1">
-        <f>I2*F2</f>
-        <v>5.2422498461538445E-4</v>
+        <f>I2*F2*0.9*0.69</f>
+        <v>3.2554371544615373E-4</v>
       </c>
       <c r="K2" s="1">
-        <f>J2/G2</f>
-        <v>4.8947244128420583E-6</v>
+        <f>J2/C2</f>
+        <v>2.1277367022624427E-4</v>
       </c>
       <c r="M2">
         <f>C2/B2</f>
@@ -7195,12 +7204,12 @@
         <v>6.6190769230769234E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J6" si="3">I3*F3</f>
-        <v>5.0834510769230776E-4</v>
+        <f t="shared" ref="J3:J6" si="3">I3*F3*0.9*0.69</f>
+        <v>3.1568231187692312E-4</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K6" si="4">J3/G3</f>
-        <v>4.7156317967746548E-6</v>
+        <f t="shared" ref="K3:K6" si="4">J3/C3</f>
+        <v>2.0498851420579423E-4</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="5">C3/B3</f>
@@ -7240,11 +7249,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>6.0381341538461584E-4</v>
+        <v>3.7496813095384645E-4</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>2.5826065670856112E-6</v>
+        <v>1.1226590747121152E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
@@ -7284,11 +7293,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>5.4029390769230756E-4</v>
+        <v>3.3552251667692297E-4</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>2.2835752649717142E-6</v>
+        <v>9.9267016768320412E-5</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
@@ -7328,11 +7337,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>7.94939076923077E-4</v>
+        <v>4.936571667692308E-4</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>1.2904855144855146E-6</v>
+        <v>5.6097405314685313E-5</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
@@ -7755,11 +7764,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D54F02-49E3-479B-A626-F3EB5AFC113B}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7831,12 +7843,12 @@
         <v>5.5839999999999987E-2</v>
       </c>
       <c r="J2" s="1">
-        <f>I2*F2</f>
-        <v>4.2885119999999991E-4</v>
+        <f>I2*F2*0.9*0.69</f>
+        <v>2.6631659519999991E-4</v>
       </c>
       <c r="K2" s="1">
         <f>J2/G2</f>
-        <v>9.2824935064935039E-6</v>
+        <v>5.7644284675324655E-6</v>
       </c>
       <c r="M2">
         <f>C2/B2</f>
@@ -7875,12 +7887,12 @@
         <v>5.3772307692307668E-2</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="3">I3*F3</f>
-        <v>4.1297132307692289E-4</v>
+        <f t="shared" ref="J3:J13" si="3">I3*F3*0.9*0.69</f>
+        <v>2.5645519163076908E-4</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K12" si="4">J3/G3</f>
-        <v>8.8053587010004866E-6</v>
+        <v>5.468127753321302E-6</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M13" si="5">C3/B3</f>
@@ -7920,11 +7932,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>4.2885119999999991E-4</v>
+        <v>2.6631659519999991E-4</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>9.2824935064935039E-6</v>
+        <v>5.7644284675324655E-6</v>
       </c>
       <c r="M4">
         <f t="shared" si="5"/>
@@ -7964,11 +7976,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>4.0503138461538455E-4</v>
+        <v>2.5152448984615381E-4</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>8.5720927960927943E-6</v>
+        <v>5.3232696263736255E-6</v>
       </c>
       <c r="M5">
         <f t="shared" si="5"/>
@@ -8008,11 +8020,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>4.6070547692307661E-4</v>
+        <v>2.8609810116923058E-4</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>4.1920425561699415E-6</v>
+        <v>2.6032584273815339E-6</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
@@ -8052,11 +8064,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>5.2422498461538445E-4</v>
+        <v>3.2554371544615373E-4</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>4.8947244128420583E-6</v>
+        <v>3.0396238603749178E-6</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -8096,11 +8108,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>5.0834510769230776E-4</v>
+        <v>3.1568231187692312E-4</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>4.7156317967746548E-6</v>
+        <v>2.9284073457970606E-6</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
@@ -8140,11 +8152,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>4.6079999999999971E-4</v>
+        <v>2.8615679999999981E-4</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>2.6331428571428557E-6</v>
+        <v>1.6351817142857133E-6</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
@@ -8184,11 +8196,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>5.0843963076923032E-4</v>
+        <v>3.1574101070769203E-4</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>2.9406572051430323E-6</v>
+        <v>1.8261481243938232E-6</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
@@ -8228,11 +8240,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>6.3557316923076933E-4</v>
+        <v>3.9469093809230778E-4</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>2.7348243082218991E-6</v>
+        <v>1.6983258954057996E-6</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
@@ -8272,11 +8284,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>6.3557316923076933E-4</v>
+        <v>3.9469093809230778E-4</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>2.7348243082218991E-6</v>
+        <v>1.6983258954057996E-6</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
@@ -8315,12 +8327,12 @@
         <v>0.11999999999999993</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ref="J13" si="9">I13*F13</f>
-        <v>9.2159999999999942E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.7231359999999963E-4</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13" si="10">J13/G13</f>
-        <v>2.6331428571428557E-6</v>
+        <f t="shared" ref="K13" si="9">J13/G13</f>
+        <v>1.6351817142857133E-6</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
